--- a/3. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
+++ b/3. hasil penelitian tanpa random state/hasil tanpa random state.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil penelitian tanpa random state\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\3. hasil penelitian tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C9F20-3E06-412A-9AA6-676866B1FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB62556-5E14-4803-B7E3-6CBB710A40E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,31 +282,31 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,41 +629,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -758,41 +758,41 @@
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -904,7 +904,7 @@
   <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -922,39 +922,39 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
@@ -1503,55 +1503,55 @@
       <c r="A16" s="28">
         <v>10</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="29">
         <v>0.64</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="29">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="29">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="29">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="36">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H16" s="36">
+      <c r="F16" s="30"/>
+      <c r="G16" s="29">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H16" s="29">
         <v>1.4E-3</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="29">
         <v>1.8E-3</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="36">
+      <c r="K16" s="30"/>
+      <c r="L16" s="29">
         <v>0.64839999999999998</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="29">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="29">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="29">
         <v>5.74E-2</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="36">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="R16" s="36">
+      <c r="P16" s="30"/>
+      <c r="Q16" s="29">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="R16" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="29">
         <v>1.9E-3</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="31">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
   <dimension ref="A5:T16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1592,39 +1592,39 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
